--- a/selenium_demo_package/class10_excelDriver/excel_data/data.xlsx
+++ b/selenium_demo_package/class10_excelDriver/excel_data/data.xlsx
@@ -3,26 +3,26 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19815" windowHeight="7860" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="0_ " numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7">
-    <font>
-      <name val="宋体"/>
-      <family val="2"/>
+  <fonts count="24">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -30,14 +30,6 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -45,6 +37,157 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <b val="1"/>
       <color rgb="00006100"/>
       <sz val="11"/>
@@ -55,20 +198,8 @@
       <color rgb="009C0006"/>
       <sz val="11"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <b val="1"/>
-      <color rgb="00006100"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b val="1"/>
-      <color rgb="009C0006"/>
-      <sz val="11"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill/>
     </fill>
@@ -77,6 +208,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
@@ -86,12 +403,110 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -107,7 +522,6 @@
       <bottom>
         <color rgb="00C6EFCE"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left>
@@ -122,42 +536,297 @@
       <bottom>
         <color rgb="00FFC7CE"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -204,7 +873,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,7 +908,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,7 +1111,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -454,25 +1122,23 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="8" width="9.75"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="7" width="13.875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="10.5"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="26.125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="31.625"/>
-    <col customWidth="1" max="6" min="6" style="7" width="31.625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="21.375"/>
-    <col customWidth="1" max="11" min="8" style="7" width="9"/>
-    <col customWidth="1" max="16384" min="12" style="7" width="9"/>
+    <col width="9.75" customWidth="1" style="8" min="1" max="1"/>
+    <col width="13.875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="10.5" customWidth="1" style="2" min="3" max="3"/>
+    <col width="26.125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="31.625" customWidth="1" style="2" min="5" max="6"/>
+    <col width="21.375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="9" customWidth="1" style="2" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>自动化测试用例</t>
         </is>
@@ -484,300 +1150,300 @@
           <t>用例编号</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>执行操作</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>定位方法</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>定位路径</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>输入文本</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>操作描述</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>open_browser</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>创建chrome浏览器</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>visit</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>http://39.98.138.157/shopxo/</t>
         </is>
       </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>访问电商系统</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>link text</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>进入登录页</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>//*[text()="还没有帐号？"]</t>
         </is>
       </c>
-      <c r="F6" s="7" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>隐式等待</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>accounts</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>shanjing</t>
         </is>
       </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>输入账号</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>pwd</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>shanjing@.000</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>输入密码</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>//button[text()="登录"]</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>点击登录按钮</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D10" s="7" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>//*[text()="登录成功"]</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>隐式等待</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>assert_text</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>link text</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>退出</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>退出</t>
         </is>
       </c>
-      <c r="F11" s="7" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>校验登录是否成功</t>
         </is>
       </c>
-      <c r="G11" s="12" t="inlineStr">
+      <c r="G11" s="10" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>sleep</t>
         </is>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F12" s="7" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>强制等待</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>quit</t>
         </is>
       </c>
-      <c r="F13" s="7" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>关闭浏览器并释放资源</t>
         </is>
@@ -787,7 +1453,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -801,24 +1467,22 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="8" width="9.75"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="7" width="13.875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="10.5"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="26.125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="31.625"/>
-    <col customWidth="1" max="6" min="6" style="7" width="31.625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="21.375"/>
-    <col customWidth="1" max="11" min="8" style="7" width="9"/>
-    <col customWidth="1" max="16384" min="12" style="7" width="9"/>
+    <col width="9.75" customWidth="1" style="8" min="1" max="1"/>
+    <col width="13.875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="10.5" customWidth="1" style="2" min="3" max="3"/>
+    <col width="26.125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="31.625" customWidth="1" style="2" min="5" max="6"/>
+    <col width="21.375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="9" customWidth="1" style="2" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>自动化测试用例</t>
         </is>
@@ -830,300 +1494,300 @@
           <t>用例编号</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>执行操作</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>定位方法</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>定位路径</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>输入文本</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>操作描述</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>open_browser</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>创建chrome浏览器</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>visit</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>http://39.98.138.157/shopxo/</t>
         </is>
       </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>访问电商系统</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>link text</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>进入登录页</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>//*[text()="还没有帐号？"]</t>
         </is>
       </c>
-      <c r="F6" s="7" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>隐式等待</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>accounts</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>shanjing</t>
         </is>
       </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>输入账号</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>pwd</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>shanjing@.000</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>输入密码</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>//button[text()="登录"]</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>点击登录按钮</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D10" s="7" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>//*[text()="登录成功"]</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>隐式等待</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>assert_text</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>link text</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>退出</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>错误的内容</t>
         </is>
       </c>
-      <c r="F11" s="7" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>校验登录是否成功</t>
         </is>
       </c>
-      <c r="G11" s="13" t="inlineStr">
+      <c r="G11" s="11" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>sleep</t>
         </is>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F12" s="7" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>强制等待</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>quit</t>
         </is>
       </c>
-      <c r="F13" s="7" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>关闭浏览器并释放资源</t>
         </is>
@@ -1133,7 +1797,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>